--- a/Data/mapped-dataset-248-80-defaultJS.xlsx
+++ b/Data/mapped-dataset-248-80-defaultJS.xlsx
@@ -428,7 +428,7 @@
         <v>2.88</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -456,7 +456,7 @@
         <v>53.15</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>2.88</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>1.16</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +498,7 @@
         <v>2.88</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,7 +512,7 @@
         <v>2.88</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>2.88</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>2.88</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>2.88</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,7 +568,7 @@
         <v>2.88</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,7 +582,7 @@
         <v>1.87</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,7 +596,7 @@
         <v>2.88</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,7 +610,7 @@
         <v>2.88</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,7 +624,7 @@
         <v>2.88</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,7 +638,7 @@
         <v>2.88</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,7 +652,7 @@
         <v>2.88</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,7 +666,7 @@
         <v>2.88</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,7 +680,7 @@
         <v>1.55</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,7 +694,7 @@
         <v>2.88</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -722,7 +722,7 @@
         <v>53.15</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,7 +736,7 @@
         <v>2.88</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,7 +750,7 @@
         <v>2.88</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,7 +764,7 @@
         <v>2.88</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,7 +778,7 @@
         <v>1.72</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,7 +792,7 @@
         <v>5.29</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,7 +806,7 @@
         <v>1.37</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,7 +820,7 @@
         <v>53.15</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,7 +834,7 @@
         <v>53.15</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,7 +848,7 @@
         <v>1.33</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,7 +862,7 @@
         <v>53.15</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>1.51</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>5.29</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>1.18</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,7 +918,7 @@
         <v>1.31</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,7 +932,7 @@
         <v>1.2</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,7 +946,7 @@
         <v>2.88</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,7 +960,7 @@
         <v>1.7</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,7 +974,7 @@
         <v>1.64</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,7 +988,7 @@
         <v>2.88</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,7 +1002,7 @@
         <v>1.73</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>5.29</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>1.18</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>1.72</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>1.16</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>1.4</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>2.88</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>1.31</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>1.23</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>5.29</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>1.71</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>1.55</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>1.63</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>1.49</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>104.14</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>5.29</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>43.05</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>1.25</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,7 +1254,7 @@
         <v>2.88</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>2.88</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>2.88</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>2.88</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>1.4</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>1.71</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>5.29</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>104.14</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>2.88</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>4.02</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>53.15</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>4.02</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,7 +1422,7 @@
         <v>4.02</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>4.02</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1464,7 +1464,7 @@
         <v>4.02</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>4.02</v>
       </c>
       <c r="D78">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>4.02</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>4.02</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,7 +1534,7 @@
         <v>4.02</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>4.02</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>4.02</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>4.02</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1590,7 +1590,7 @@
         <v>4.02</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>53.15</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>5.29</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1632,7 +1632,7 @@
         <v>5.29</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>5.29</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1660,7 +1660,7 @@
         <v>5.29</v>
       </c>
       <c r="D91">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>1.65</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>104.14</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>5.29</v>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1716,7 +1716,7 @@
         <v>5.29</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>5.29</v>
       </c>
       <c r="D96">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>5.29</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1758,7 +1758,7 @@
         <v>5.29</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1772,7 +1772,7 @@
         <v>1.72</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>1.63</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1800,7 +1800,7 @@
         <v>104.14</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>1.25</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1828,7 +1828,7 @@
         <v>1.16</v>
       </c>
       <c r="D103">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>53.15</v>
       </c>
       <c r="D104">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1856,7 +1856,7 @@
         <v>1.87</v>
       </c>
       <c r="D105">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>1.72</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>1.7</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>1.16</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>1.51</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1926,7 +1926,7 @@
         <v>1.4</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1940,7 +1940,7 @@
         <v>1.18</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>1.31</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>1.65</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1982,7 +1982,7 @@
         <v>1.64</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1996,7 +1996,7 @@
         <v>1.73</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>1.45</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2038,7 +2038,7 @@
         <v>53.15</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2052,7 +2052,7 @@
         <v>1.18</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>2.88</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>53.15</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>4.02</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2108,7 +2108,7 @@
         <v>1.53</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>53.15</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>53.15</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>1.72</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2164,7 +2164,7 @@
         <v>4.02</v>
       </c>
       <c r="D127">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>1.51</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>53.15</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>1.23</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>1.2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2248,7 +2248,7 @@
         <v>104.14</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>1.31</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>53.15</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>1.23</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>5.29</v>
       </c>
       <c r="D137">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2318,7 +2318,7 @@
         <v>1.63</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>1.49</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>1.45</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>1.37</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>1.72</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>1.37</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>53.15</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>4.02</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>2.88</v>
       </c>
       <c r="D146">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2444,7 +2444,7 @@
         <v>1.31</v>
       </c>
       <c r="D147">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>4.02</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>4.02</v>
       </c>
       <c r="D149">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>1.65</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>1.7</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>4.02</v>
       </c>
       <c r="D152">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>2.88</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>1.72</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>1.16</v>
       </c>
       <c r="D155">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>1.53</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>1.31</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>1.71</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>1.55</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>5.29</v>
       </c>
       <c r="D160">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>1.49</v>
       </c>
       <c r="D161">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>104.14</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>5.29</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>43.05</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>53.15</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>1.25</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>1.45</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>53.15</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2752,7 +2752,7 @@
         <v>1.33</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>1.2</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2780,7 +2780,7 @@
         <v>1.7</v>
       </c>
       <c r="D171">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>1.72</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2808,7 +2808,7 @@
         <v>1.4</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2822,7 +2822,7 @@
         <v>1.55</v>
       </c>
       <c r="D174">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>1.16</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>1.31</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>1.37</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2892,7 +2892,7 @@
         <v>53.15</v>
       </c>
       <c r="D179">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>53.15</v>
       </c>
       <c r="D180">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>4.02</v>
       </c>
       <c r="D181">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>5.29</v>
       </c>
       <c r="D182">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2948,7 +2948,7 @@
         <v>4.02</v>
       </c>
       <c r="D183">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>4.02</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>4.02</v>
       </c>
       <c r="D185">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>2.88</v>
       </c>
       <c r="D186">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D187">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>1.31</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>4.02</v>
       </c>
       <c r="D189">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3046,7 +3046,7 @@
         <v>1.55</v>
       </c>
       <c r="D190">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3060,7 +3060,7 @@
         <v>104.14</v>
       </c>
       <c r="D191">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>1.45</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>43.05</v>
       </c>
       <c r="D193">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>1.71</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>43.05</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>53.15</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3144,7 +3144,7 @@
         <v>53.15</v>
       </c>
       <c r="D197">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>5.29</v>
       </c>
       <c r="D198">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>1.18</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>53.15</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>53.15</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3214,7 +3214,7 @@
         <v>53.15</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>53.15</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3256,7 +3256,7 @@
         <v>104.14</v>
       </c>
       <c r="D205">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3270,7 +3270,7 @@
         <v>53.15</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3284,7 +3284,7 @@
         <v>53.15</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>1.65</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>1.7</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3326,7 +3326,7 @@
         <v>5.29</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>104.14</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>2.88</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3368,7 +3368,7 @@
         <v>2.88</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>53.15</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>1.63</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3410,7 +3410,7 @@
         <v>53.15</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3424,7 +3424,7 @@
         <v>2.88</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3438,7 +3438,7 @@
         <v>2.88</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3452,7 +3452,7 @@
         <v>5.29</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>2.88</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>4.02</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>4.02</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3522,7 +3522,7 @@
         <v>1.4</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3536,7 +3536,7 @@
         <v>1.23</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3550,7 +3550,7 @@
         <v>2.88</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3564,7 +3564,7 @@
         <v>1.45</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>43.05</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>1.65</v>
       </c>
       <c r="D229">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>1.64</v>
       </c>
       <c r="D230">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3620,7 +3620,7 @@
         <v>4.02</v>
       </c>
       <c r="D231">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3634,7 +3634,7 @@
         <v>2.88</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3648,7 +3648,7 @@
         <v>2.88</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>2.88</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3676,7 +3676,7 @@
         <v>2.88</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3690,7 +3690,7 @@
         <v>2.88</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3704,7 +3704,7 @@
         <v>1.87</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3718,7 +3718,7 @@
         <v>2.88</v>
       </c>
       <c r="D238">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3732,7 +3732,7 @@
         <v>2.88</v>
       </c>
       <c r="D239">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3746,7 +3746,7 @@
         <v>2.88</v>
       </c>
       <c r="D240">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3760,7 +3760,7 @@
         <v>2.88</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3774,7 +3774,7 @@
         <v>2.88</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>4.02</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3802,7 +3802,7 @@
         <v>1.31</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3816,7 +3816,7 @@
         <v>4.02</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3830,7 +3830,7 @@
         <v>1.53</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3844,7 +3844,7 @@
         <v>53.15</v>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3858,7 +3858,7 @@
         <v>1.37</v>
       </c>
       <c r="D248">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3872,7 +3872,7 @@
         <v>1.33</v>
       </c>
       <c r="D249">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3886,7 +3886,7 @@
         <v>4.02</v>
       </c>
       <c r="D250">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3900,7 +3900,7 @@
         <v>1.73</v>
       </c>
       <c r="D251">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3914,7 +3914,7 @@
         <v>1.18</v>
       </c>
       <c r="D252">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3928,7 +3928,7 @@
         <v>104.14</v>
       </c>
       <c r="D253">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3942,7 +3942,7 @@
         <v>1.33</v>
       </c>
       <c r="D254">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3956,7 +3956,7 @@
         <v>1.49</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3970,7 +3970,7 @@
         <v>2.88</v>
       </c>
       <c r="D256">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3984,7 +3984,7 @@
         <v>4.02</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3998,7 +3998,7 @@
         <v>1.71</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>2.88</v>
       </c>
       <c r="D259">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>5.29</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4040,7 +4040,7 @@
         <v>2.88</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4054,7 +4054,7 @@
         <v>2.88</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4068,7 +4068,7 @@
         <v>2.88</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4082,7 +4082,7 @@
         <v>2.88</v>
       </c>
       <c r="D264">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>4.02</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4110,7 +4110,7 @@
         <v>2.88</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4124,7 +4124,7 @@
         <v>53.15</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4138,7 +4138,7 @@
         <v>53.15</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4152,7 +4152,7 @@
         <v>2.88</v>
       </c>
       <c r="D269">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4166,7 +4166,7 @@
         <v>2.88</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4180,7 +4180,7 @@
         <v>2.88</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4194,7 +4194,7 @@
         <v>2.88</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4208,7 +4208,7 @@
         <v>2.88</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4222,7 +4222,7 @@
         <v>4.02</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4236,7 +4236,7 @@
         <v>4.02</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4250,7 +4250,7 @@
         <v>4.02</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4264,7 +4264,7 @@
         <v>4.02</v>
       </c>
       <c r="D277">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4278,7 +4278,7 @@
         <v>4.02</v>
       </c>
       <c r="D278">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4292,7 +4292,7 @@
         <v>4.02</v>
       </c>
       <c r="D279">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4306,7 +4306,7 @@
         <v>4.02</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4320,7 +4320,7 @@
         <v>53.15</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4334,7 +4334,7 @@
         <v>4.02</v>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4348,7 +4348,7 @@
         <v>4.02</v>
       </c>
       <c r="D283">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4376,7 +4376,7 @@
         <v>4.02</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4390,7 +4390,7 @@
         <v>4.02</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4404,7 +4404,7 @@
         <v>4.02</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4418,7 +4418,7 @@
         <v>4.02</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>5.29</v>
       </c>
       <c r="D289">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4446,7 +4446,7 @@
         <v>1.72</v>
       </c>
       <c r="D290">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>5.29</v>
       </c>
       <c r="D291">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4474,7 +4474,7 @@
         <v>1.37</v>
       </c>
       <c r="D292">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4488,7 +4488,7 @@
         <v>53.15</v>
       </c>
       <c r="D293">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4502,7 +4502,7 @@
         <v>2.88</v>
       </c>
       <c r="D294">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4516,7 +4516,7 @@
         <v>53.15</v>
       </c>
       <c r="D295">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4530,7 +4530,7 @@
         <v>4.02</v>
       </c>
       <c r="D296">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4544,7 +4544,7 @@
         <v>1.33</v>
       </c>
       <c r="D297">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4558,7 +4558,7 @@
         <v>53.15</v>
       </c>
       <c r="D298">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4572,7 +4572,7 @@
         <v>1.51</v>
       </c>
       <c r="D299">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4586,7 +4586,7 @@
         <v>5.29</v>
       </c>
       <c r="D300">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>1.18</v>
       </c>
       <c r="D301">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4614,7 +4614,7 @@
         <v>1.31</v>
       </c>
       <c r="D302">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4628,7 +4628,7 @@
         <v>5.29</v>
       </c>
       <c r="D303">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4642,7 +4642,7 @@
         <v>1.2</v>
       </c>
       <c r="D304">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4656,7 +4656,7 @@
         <v>1.7</v>
       </c>
       <c r="D305">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4670,7 +4670,7 @@
         <v>4.02</v>
       </c>
       <c r="D306">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>4.02</v>
       </c>
       <c r="D307">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4698,7 +4698,7 @@
         <v>5.29</v>
       </c>
       <c r="D308">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4712,7 +4712,7 @@
         <v>1.64</v>
       </c>
       <c r="D309">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4726,7 +4726,7 @@
         <v>2.88</v>
       </c>
       <c r="D310">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4740,7 +4740,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D311">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4754,7 +4754,7 @@
         <v>4.02</v>
       </c>
       <c r="D312">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4768,7 +4768,7 @@
         <v>53.15</v>
       </c>
       <c r="D313">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4782,7 +4782,7 @@
         <v>5.29</v>
       </c>
       <c r="D314">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4796,7 +4796,7 @@
         <v>1.16</v>
       </c>
       <c r="D315">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4810,7 +4810,7 @@
         <v>1.53</v>
       </c>
       <c r="D316">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4824,7 +4824,7 @@
         <v>1.31</v>
       </c>
       <c r="D317">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>4.02</v>
       </c>
       <c r="D318">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4852,7 +4852,7 @@
         <v>1.23</v>
       </c>
       <c r="D319">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4866,7 +4866,7 @@
         <v>5.29</v>
       </c>
       <c r="D320">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4880,7 +4880,7 @@
         <v>1.71</v>
       </c>
       <c r="D321">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4894,7 +4894,7 @@
         <v>1.55</v>
       </c>
       <c r="D322">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>1.63</v>
       </c>
       <c r="D323">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4922,7 +4922,7 @@
         <v>5.29</v>
       </c>
       <c r="D324">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4936,7 +4936,7 @@
         <v>4.02</v>
       </c>
       <c r="D325">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4950,7 +4950,7 @@
         <v>104.14</v>
       </c>
       <c r="D326">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4964,7 +4964,7 @@
         <v>2.88</v>
       </c>
       <c r="D327">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4978,7 +4978,7 @@
         <v>5.29</v>
       </c>
       <c r="D328">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4992,7 +4992,7 @@
         <v>5.29</v>
       </c>
       <c r="D329">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5006,7 +5006,7 @@
         <v>43.05</v>
       </c>
       <c r="D330">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>53.15</v>
       </c>
       <c r="D331">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5034,7 +5034,7 @@
         <v>1.25</v>
       </c>
       <c r="D332">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5048,7 +5048,7 @@
         <v>5.29</v>
       </c>
       <c r="D333">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5062,7 +5062,7 @@
         <v>4.02</v>
       </c>
       <c r="D334">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5076,7 +5076,7 @@
         <v>53.15</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5090,7 +5090,7 @@
         <v>1.72</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5104,7 +5104,7 @@
         <v>5.29</v>
       </c>
       <c r="D337">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5118,7 +5118,7 @@
         <v>5.29</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5132,7 +5132,7 @@
         <v>5.29</v>
       </c>
       <c r="D339">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5146,7 +5146,7 @@
         <v>5.29</v>
       </c>
       <c r="D340">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>5.29</v>
       </c>
       <c r="D341">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5174,7 +5174,7 @@
         <v>5.29</v>
       </c>
       <c r="D342">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5188,7 +5188,7 @@
         <v>5.29</v>
       </c>
       <c r="D343">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5202,7 +5202,7 @@
         <v>4.02</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>1.72</v>
       </c>
       <c r="D345">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5230,7 +5230,7 @@
         <v>1.25</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5244,7 +5244,7 @@
         <v>1.72</v>
       </c>
       <c r="D347">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5258,7 +5258,7 @@
         <v>1.51</v>
       </c>
       <c r="D348">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5272,7 +5272,7 @@
         <v>1.18</v>
       </c>
       <c r="D349">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5286,7 +5286,7 @@
         <v>1.31</v>
       </c>
       <c r="D350">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5300,7 +5300,7 @@
         <v>1.49</v>
       </c>
       <c r="D351">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5314,7 +5314,7 @@
         <v>1.18</v>
       </c>
       <c r="D352">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5328,7 +5328,7 @@
         <v>4.02</v>
       </c>
       <c r="D353">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5342,7 +5342,7 @@
         <v>1.65</v>
       </c>
       <c r="D354">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5356,7 +5356,7 @@
         <v>1.64</v>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5370,7 +5370,7 @@
         <v>1.2</v>
       </c>
       <c r="D356">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5384,7 +5384,7 @@
         <v>5.29</v>
       </c>
       <c r="D357">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5398,7 +5398,7 @@
         <v>1.73</v>
       </c>
       <c r="D358">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5412,7 +5412,7 @@
         <v>1.18</v>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5426,7 +5426,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D360">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5440,7 +5440,7 @@
         <v>1.53</v>
       </c>
       <c r="D361">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5454,7 +5454,7 @@
         <v>1.23</v>
       </c>
       <c r="D362">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5468,7 +5468,7 @@
         <v>1.63</v>
       </c>
       <c r="D363">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5482,7 +5482,7 @@
         <v>1.53</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>4.02</v>
       </c>
       <c r="D365">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5510,7 +5510,7 @@
         <v>1.49</v>
       </c>
       <c r="D366">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5524,7 +5524,7 @@
         <v>2.88</v>
       </c>
       <c r="D367">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5538,7 +5538,7 @@
         <v>1.45</v>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5552,7 +5552,7 @@
         <v>1.33</v>
       </c>
       <c r="D369">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5566,7 +5566,7 @@
         <v>2.88</v>
       </c>
       <c r="D370">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5580,7 +5580,7 @@
         <v>104.14</v>
       </c>
       <c r="D371">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5594,7 +5594,7 @@
         <v>1.37</v>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5608,7 +5608,7 @@
         <v>1.33</v>
       </c>
       <c r="D373">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5622,7 +5622,7 @@
         <v>1.18</v>
       </c>
       <c r="D374">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5636,7 +5636,7 @@
         <v>1.4</v>
       </c>
       <c r="D375">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5650,7 +5650,7 @@
         <v>1.71</v>
       </c>
       <c r="D376">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5664,7 +5664,7 @@
         <v>1.2</v>
       </c>
       <c r="D377">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5678,7 +5678,7 @@
         <v>1.7</v>
       </c>
       <c r="D378">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5692,7 +5692,7 @@
         <v>53.15</v>
       </c>
       <c r="D379">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5706,7 +5706,7 @@
         <v>5.29</v>
       </c>
       <c r="D380">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5720,7 +5720,7 @@
         <v>1.72</v>
       </c>
       <c r="D381">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5734,7 +5734,7 @@
         <v>1.4</v>
       </c>
       <c r="D382">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5748,7 +5748,7 @@
         <v>1.2</v>
       </c>
       <c r="D383">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5762,7 +5762,7 @@
         <v>1.55</v>
       </c>
       <c r="D384">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5776,7 +5776,7 @@
         <v>1.64</v>
       </c>
       <c r="D385">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5790,7 +5790,7 @@
         <v>5.29</v>
       </c>
       <c r="D386">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5804,7 +5804,7 @@
         <v>1.16</v>
       </c>
       <c r="D387">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5818,7 +5818,7 @@
         <v>1.31</v>
       </c>
       <c r="D388">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5832,7 +5832,7 @@
         <v>5.29</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5846,7 +5846,7 @@
         <v>1.73</v>
       </c>
       <c r="D390">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5860,7 +5860,7 @@
         <v>43.05</v>
       </c>
       <c r="D391">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>1.71</v>
       </c>
       <c r="D392">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5888,7 +5888,7 @@
         <v>43.05</v>
       </c>
       <c r="D393">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5902,7 +5902,7 @@
         <v>53.15</v>
       </c>
       <c r="D394">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5916,7 +5916,7 @@
         <v>53.15</v>
       </c>
       <c r="D395">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5930,7 +5930,7 @@
         <v>1.72</v>
       </c>
       <c r="D396">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5944,7 +5944,7 @@
         <v>5.29</v>
       </c>
       <c r="D397">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>1.37</v>
       </c>
       <c r="D398">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5972,7 +5972,7 @@
         <v>2.88</v>
       </c>
       <c r="D399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5986,7 +5986,7 @@
         <v>53.15</v>
       </c>
       <c r="D400">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>2.88</v>
       </c>
       <c r="D401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>53.15</v>
       </c>
       <c r="D402">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6028,7 +6028,7 @@
         <v>4.02</v>
       </c>
       <c r="D403">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6042,7 +6042,7 @@
         <v>4.02</v>
       </c>
       <c r="D404">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6056,7 +6056,7 @@
         <v>1.33</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6070,7 +6070,7 @@
         <v>53.15</v>
       </c>
       <c r="D406">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6084,7 +6084,7 @@
         <v>2.88</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6098,7 +6098,7 @@
         <v>1.51</v>
       </c>
       <c r="D408">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6112,7 +6112,7 @@
         <v>5.29</v>
       </c>
       <c r="D409">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6126,7 +6126,7 @@
         <v>2.88</v>
       </c>
       <c r="D410">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6140,7 +6140,7 @@
         <v>1.18</v>
       </c>
       <c r="D411">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6154,7 +6154,7 @@
         <v>2.88</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6168,7 +6168,7 @@
         <v>1.31</v>
       </c>
       <c r="D413">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6182,7 +6182,7 @@
         <v>4.02</v>
       </c>
       <c r="D414">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6196,7 +6196,7 @@
         <v>4.02</v>
       </c>
       <c r="D415">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6210,7 +6210,7 @@
         <v>5.29</v>
       </c>
       <c r="D416">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6224,7 +6224,7 @@
         <v>1.2</v>
       </c>
       <c r="D417">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6238,7 +6238,7 @@
         <v>2.88</v>
       </c>
       <c r="D418">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>1.65</v>
       </c>
       <c r="D419">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6266,7 +6266,7 @@
         <v>4.02</v>
       </c>
       <c r="D420">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6280,7 +6280,7 @@
         <v>4.02</v>
       </c>
       <c r="D421">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>1.7</v>
       </c>
       <c r="D422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6308,7 +6308,7 @@
         <v>4.02</v>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>4.02</v>
       </c>
       <c r="D424">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6336,7 +6336,7 @@
         <v>5.29</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6350,7 +6350,7 @@
         <v>2.88</v>
       </c>
       <c r="D426">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6364,7 +6364,7 @@
         <v>4.02</v>
       </c>
       <c r="D427">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6378,7 +6378,7 @@
         <v>1.64</v>
       </c>
       <c r="D428">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6392,7 +6392,7 @@
         <v>4.02</v>
       </c>
       <c r="D429">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>1.73</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D431">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>2.88</v>
       </c>
       <c r="D432">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6448,7 +6448,7 @@
         <v>2.88</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6462,7 +6462,7 @@
         <v>4.02</v>
       </c>
       <c r="D434">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6476,7 +6476,7 @@
         <v>53.15</v>
       </c>
       <c r="D435">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6490,7 +6490,7 @@
         <v>2.88</v>
       </c>
       <c r="D436">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6504,7 +6504,7 @@
         <v>5.29</v>
       </c>
       <c r="D437">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6518,7 +6518,7 @@
         <v>1.18</v>
       </c>
       <c r="D438">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6532,7 +6532,7 @@
         <v>2.88</v>
       </c>
       <c r="D439">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6546,7 +6546,7 @@
         <v>1.72</v>
       </c>
       <c r="D440">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6560,7 +6560,7 @@
         <v>1.16</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6574,7 +6574,7 @@
         <v>2.88</v>
       </c>
       <c r="D442">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>1.4</v>
       </c>
       <c r="D443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6602,7 +6602,7 @@
         <v>1.53</v>
       </c>
       <c r="D444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6616,7 +6616,7 @@
         <v>2.88</v>
       </c>
       <c r="D445">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6630,7 +6630,7 @@
         <v>1.31</v>
       </c>
       <c r="D446">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6644,7 +6644,7 @@
         <v>2.88</v>
       </c>
       <c r="D447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6658,7 +6658,7 @@
         <v>4.02</v>
       </c>
       <c r="D448">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6672,7 +6672,7 @@
         <v>1.23</v>
       </c>
       <c r="D449">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6686,7 +6686,7 @@
         <v>5.29</v>
       </c>
       <c r="D450">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6700,7 +6700,7 @@
         <v>1.71</v>
       </c>
       <c r="D451">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6714,7 +6714,7 @@
         <v>2.88</v>
       </c>
       <c r="D452">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6728,7 +6728,7 @@
         <v>1.55</v>
       </c>
       <c r="D453">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6742,7 +6742,7 @@
         <v>1.63</v>
       </c>
       <c r="D454">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6756,7 +6756,7 @@
         <v>5.29</v>
       </c>
       <c r="D455">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6770,7 +6770,7 @@
         <v>2.88</v>
       </c>
       <c r="D456">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6784,7 +6784,7 @@
         <v>1.49</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6798,7 +6798,7 @@
         <v>4.02</v>
       </c>
       <c r="D458">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6812,7 +6812,7 @@
         <v>104.14</v>
       </c>
       <c r="D459">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6826,7 +6826,7 @@
         <v>2.88</v>
       </c>
       <c r="D460">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6840,7 +6840,7 @@
         <v>2.88</v>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6854,7 +6854,7 @@
         <v>1.45</v>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6868,7 +6868,7 @@
         <v>2.88</v>
       </c>
       <c r="D463">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6882,7 +6882,7 @@
         <v>2.88</v>
       </c>
       <c r="D464">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6896,7 +6896,7 @@
         <v>5.29</v>
       </c>
       <c r="D465">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6910,7 +6910,7 @@
         <v>5.29</v>
       </c>
       <c r="D466">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6924,7 +6924,7 @@
         <v>2.88</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6938,7 +6938,7 @@
         <v>43.05</v>
       </c>
       <c r="D468">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6952,7 +6952,7 @@
         <v>53.15</v>
       </c>
       <c r="D469">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6966,7 +6966,7 @@
         <v>1.25</v>
       </c>
       <c r="D470">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6980,7 +6980,7 @@
         <v>1.31</v>
       </c>
       <c r="D471">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6994,7 +6994,7 @@
         <v>2.88</v>
       </c>
       <c r="D472">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -7008,7 +7008,7 @@
         <v>53.15</v>
       </c>
       <c r="D473">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7022,7 +7022,7 @@
         <v>53.15</v>
       </c>
       <c r="D474">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7036,7 +7036,7 @@
         <v>53.15</v>
       </c>
       <c r="D475">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7050,7 +7050,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D476">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7064,7 +7064,7 @@
         <v>104.14</v>
       </c>
       <c r="D477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7078,7 +7078,7 @@
         <v>76.54000000000001</v>
       </c>
       <c r="D478">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7092,7 +7092,7 @@
         <v>2.88</v>
       </c>
       <c r="D479">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7106,7 +7106,7 @@
         <v>2.88</v>
       </c>
       <c r="D480">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7120,7 +7120,7 @@
         <v>2.88</v>
       </c>
       <c r="D481">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7134,7 +7134,7 @@
         <v>2.88</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7148,7 +7148,7 @@
         <v>2.88</v>
       </c>
       <c r="D483">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7162,7 +7162,7 @@
         <v>2.88</v>
       </c>
       <c r="D484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7176,7 +7176,7 @@
         <v>1.18</v>
       </c>
       <c r="D485">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7190,7 +7190,7 @@
         <v>2.88</v>
       </c>
       <c r="D486">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7204,7 +7204,7 @@
         <v>2.88</v>
       </c>
       <c r="D487">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7218,7 +7218,7 @@
         <v>1.51</v>
       </c>
       <c r="D488">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7232,7 +7232,7 @@
         <v>2.88</v>
       </c>
       <c r="D489">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
